--- a/COES.MVC.Intranet/Areas/Hidrologia/Reporte/RptGraficoHidrologia_01.xlsx
+++ b/COES.MVC.Intranet/Areas/Hidrologia/Reporte/RptGraficoHidrologia_01.xlsx
@@ -5,60 +5,132 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="GRAF-MENSUAL-QN" sheetId="1" r:id="rId1"/>
+    <sheet name="GRAF-DIARIO" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
-  <si>
-    <t xml:space="preserve">GRAFICO - PROGRAMADO MENSUAL - QN </t>
-  </si>
-  <si>
-    <t>FECHA:</t>
-  </si>
-  <si>
-    <t>29/05/2015 14:14</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+  <si>
+    <t xml:space="preserve">GRAFICO - PROGRAMADO DIARIO - Q TURB. VERT. </t>
   </si>
   <si>
     <t>Fecha Inicio:</t>
   </si>
   <si>
-    <t>01 2015</t>
+    <t>01/03/2015</t>
   </si>
   <si>
     <t>Fecha Fin:</t>
   </si>
   <si>
-    <t>05 2015</t>
-  </si>
-  <si>
-    <t>AFLUENTES</t>
-  </si>
-  <si>
-    <t>NUEVO PTO EMBALSE</t>
-  </si>
-  <si>
-    <t>HUINCAUTUR</t>
-  </si>
-  <si>
-    <t>Pto Yanango CTurbinado</t>
-  </si>
-  <si>
-    <t>Ene 15</t>
-  </si>
-  <si>
-    <t>Feb 15</t>
-  </si>
-  <si>
-    <t>Mar 15</t>
-  </si>
-  <si>
-    <t>Abr 15</t>
-  </si>
-  <si>
-    <t>May 15</t>
+    <t>02/06/2015</t>
+  </si>
+  <si>
+    <t>FECHA</t>
+  </si>
+  <si>
+    <t>C.H. HUINCO-CAUDAL TURBINADO m3/s</t>
+  </si>
+  <si>
+    <t>C.H. HUINCO-CAUDAL VERTIDO m3/s</t>
+  </si>
+  <si>
+    <t>C.H. MATUCANA-CAUDAL TURBINADO m3/s</t>
+  </si>
+  <si>
+    <t>C.H. MATUCANA-CAUDAL VERTIDO m3/s</t>
+  </si>
+  <si>
+    <t>C.H. CALLAHUANCA-CAUDAL TURBINADO m3/s</t>
+  </si>
+  <si>
+    <t>C.H. CALLAHUANCA-CAUDAL VERTIDO m3/s</t>
+  </si>
+  <si>
+    <t>C.H. MOYOPAMPA-CAUDAL TURBINADO m3/s</t>
+  </si>
+  <si>
+    <t>C.H. MOYOPAMPA-CAUDAL VERTIDO m3/s</t>
+  </si>
+  <si>
+    <t>C.H. HUAMPANI-CAUDAL TURBINADO m3/s</t>
+  </si>
+  <si>
+    <t>C.H. HUAMPANI-CAUDAL VERTIDO m3/s</t>
+  </si>
+  <si>
+    <t>00:00</t>
+  </si>
+  <si>
+    <t>01:00</t>
+  </si>
+  <si>
+    <t>02:00</t>
+  </si>
+  <si>
+    <t>03:00</t>
+  </si>
+  <si>
+    <t>04:00</t>
+  </si>
+  <si>
+    <t>05:00</t>
+  </si>
+  <si>
+    <t>06:00</t>
+  </si>
+  <si>
+    <t>07:00</t>
+  </si>
+  <si>
+    <t>08:00</t>
+  </si>
+  <si>
+    <t>09:00</t>
+  </si>
+  <si>
+    <t>10:00</t>
+  </si>
+  <si>
+    <t>11:00</t>
+  </si>
+  <si>
+    <t>12:00</t>
+  </si>
+  <si>
+    <t>13:00</t>
+  </si>
+  <si>
+    <t>14:00</t>
+  </si>
+  <si>
+    <t>15:00</t>
+  </si>
+  <si>
+    <t>16:00</t>
+  </si>
+  <si>
+    <t>17:00</t>
+  </si>
+  <si>
+    <t>18:00</t>
+  </si>
+  <si>
+    <t>19:00</t>
+  </si>
+  <si>
+    <t>20:00</t>
+  </si>
+  <si>
+    <t>21:00</t>
+  </si>
+  <si>
+    <t>22:00</t>
+  </si>
+  <si>
+    <t>23:00</t>
   </si>
 </sst>
 </file>
@@ -66,7 +138,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -74,6 +146,10 @@
     <font>
       <b/>
       <sz val="16"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -100,7 +176,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -115,17 +191,25 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" borderId="1" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="0">
       <alignment horizontal="centerContinuous"/>
     </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" borderId="2" applyBorder="1" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -137,6 +221,25 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>GRAFICO - PROGRAMADO MENSUAL - QN</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -146,14 +249,14 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>NUEVO PTO EMBALSE</c:v>
+            <c:v>C.H. HUINCO-CAUDAL TURBINADO m3/s</c:v>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'GRAF-MENSUAL-QN'!$C$7:$C$12</c:f>
+              <c:f>'GRAF-DIARIO'!$C$7:$C$31</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -162,14 +265,14 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>HUINCAUTUR</c:v>
+            <c:v>C.H. HUINCO-CAUDAL VERTIDO m3/s</c:v>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'GRAF-MENSUAL-QN'!$D$7:$D$12</c:f>
+              <c:f>'GRAF-DIARIO'!$D$7:$D$31</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -178,14 +281,14 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>Pto Yanango CTurbinado</c:v>
+            <c:v>C.H. MATUCANA-CAUDAL TURBINADO m3/s</c:v>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'GRAF-MENSUAL-QN'!$E$7:$E$12</c:f>
+              <c:f>'GRAF-DIARIO'!$E$7:$E$31</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -247,8 +350,8 @@
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1152525</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
@@ -279,13 +382,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -312,13 +415,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="B1:E11"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
     <col min="3" max="3" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -336,103 +440,886 @@
       </c>
     </row>
     <row r="4">
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="0" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>6</v>
+      <c r="C4" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="H6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="7">
-      <c r="B7" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="0">
-        <v>0</v>
-      </c>
-      <c r="D7" s="0">
-        <v>131</v>
-      </c>
-      <c r="E7" s="0">
-        <v>10.997</v>
+      <c r="B7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="4">
+        <v>21</v>
+      </c>
+      <c r="D7" s="4">
+        <v>6</v>
+      </c>
+      <c r="E7" s="4">
+        <v>8</v>
+      </c>
+      <c r="F7" s="4">
+        <v>4</v>
+      </c>
+      <c r="G7" s="4">
+        <v>2</v>
+      </c>
+      <c r="H7" s="4">
+        <v>2</v>
+      </c>
+      <c r="I7" s="4">
+        <v>9</v>
+      </c>
+      <c r="J7" s="4">
+        <v>4</v>
+      </c>
+      <c r="K7" s="4">
+        <v>2</v>
+      </c>
+      <c r="L7" s="4">
+        <v>7</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="0">
-        <v>0</v>
-      </c>
-      <c r="D8" s="0">
-        <v>150.5</v>
-      </c>
-      <c r="E8" s="0">
-        <v>10.458</v>
+      <c r="B8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="4">
+        <v>4</v>
+      </c>
+      <c r="D8" s="4">
+        <v>6</v>
+      </c>
+      <c r="E8" s="4">
+        <v>8</v>
+      </c>
+      <c r="F8" s="4">
+        <v>4</v>
+      </c>
+      <c r="G8" s="4">
+        <v>2</v>
+      </c>
+      <c r="H8" s="4">
+        <v>2</v>
+      </c>
+      <c r="I8" s="4">
+        <v>9</v>
+      </c>
+      <c r="J8" s="4">
+        <v>4</v>
+      </c>
+      <c r="K8" s="4">
+        <v>2</v>
+      </c>
+      <c r="L8" s="4">
+        <v>7</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="0">
-        <v>0</v>
-      </c>
-      <c r="D9" s="0">
-        <v>223.2</v>
-      </c>
-      <c r="E9" s="0">
-        <v>29.293</v>
+      <c r="B9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="4">
+        <v>5</v>
+      </c>
+      <c r="D9" s="4">
+        <v>6</v>
+      </c>
+      <c r="E9" s="4">
+        <v>8</v>
+      </c>
+      <c r="F9" s="4">
+        <v>4</v>
+      </c>
+      <c r="G9" s="4">
+        <v>2</v>
+      </c>
+      <c r="H9" s="4">
+        <v>2</v>
+      </c>
+      <c r="I9" s="4">
+        <v>9</v>
+      </c>
+      <c r="J9" s="4">
+        <v>4</v>
+      </c>
+      <c r="K9" s="4">
+        <v>2</v>
+      </c>
+      <c r="L9" s="4">
+        <v>7</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="0">
-        <v>0</v>
-      </c>
-      <c r="D10" s="0">
-        <v>175.8</v>
-      </c>
-      <c r="E10" s="0">
-        <v>27.896</v>
+      <c r="B10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="4">
+        <v>5</v>
+      </c>
+      <c r="D10" s="4">
+        <v>6</v>
+      </c>
+      <c r="E10" s="4">
+        <v>8</v>
+      </c>
+      <c r="F10" s="4">
+        <v>4</v>
+      </c>
+      <c r="G10" s="4">
+        <v>2</v>
+      </c>
+      <c r="H10" s="4">
+        <v>2</v>
+      </c>
+      <c r="I10" s="4">
+        <v>9</v>
+      </c>
+      <c r="J10" s="4">
+        <v>4</v>
+      </c>
+      <c r="K10" s="4">
+        <v>2</v>
+      </c>
+      <c r="L10" s="4">
+        <v>7</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="0">
-        <v>0</v>
-      </c>
-      <c r="D11" s="0">
-        <v>89.4</v>
-      </c>
-      <c r="E11" s="0">
-        <v>23.836</v>
+      <c r="B11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="4">
+        <v>5</v>
+      </c>
+      <c r="D11" s="4">
+        <v>6</v>
+      </c>
+      <c r="E11" s="4">
+        <v>8</v>
+      </c>
+      <c r="F11" s="4">
+        <v>4</v>
+      </c>
+      <c r="G11" s="4">
+        <v>2</v>
+      </c>
+      <c r="H11" s="4">
+        <v>2</v>
+      </c>
+      <c r="I11" s="4">
+        <v>9</v>
+      </c>
+      <c r="J11" s="4">
+        <v>4</v>
+      </c>
+      <c r="K11" s="4">
+        <v>2</v>
+      </c>
+      <c r="L11" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="4">
+        <v>5</v>
+      </c>
+      <c r="D12" s="4">
+        <v>6</v>
+      </c>
+      <c r="E12" s="4">
+        <v>8</v>
+      </c>
+      <c r="F12" s="4">
+        <v>4</v>
+      </c>
+      <c r="G12" s="4">
+        <v>2</v>
+      </c>
+      <c r="H12" s="4">
+        <v>2</v>
+      </c>
+      <c r="I12" s="4">
+        <v>9</v>
+      </c>
+      <c r="J12" s="4">
+        <v>4</v>
+      </c>
+      <c r="K12" s="4">
+        <v>2</v>
+      </c>
+      <c r="L12" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="4">
+        <v>5</v>
+      </c>
+      <c r="D13" s="4">
+        <v>6</v>
+      </c>
+      <c r="E13" s="4">
+        <v>8</v>
+      </c>
+      <c r="F13" s="4">
+        <v>4</v>
+      </c>
+      <c r="G13" s="4">
+        <v>2</v>
+      </c>
+      <c r="H13" s="4">
+        <v>2</v>
+      </c>
+      <c r="I13" s="4">
+        <v>9</v>
+      </c>
+      <c r="J13" s="4">
+        <v>4</v>
+      </c>
+      <c r="K13" s="4">
+        <v>2</v>
+      </c>
+      <c r="L13" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="4">
+        <v>5</v>
+      </c>
+      <c r="D14" s="4">
+        <v>6</v>
+      </c>
+      <c r="E14" s="4">
+        <v>8</v>
+      </c>
+      <c r="F14" s="4">
+        <v>4</v>
+      </c>
+      <c r="G14" s="4">
+        <v>2</v>
+      </c>
+      <c r="H14" s="4">
+        <v>2</v>
+      </c>
+      <c r="I14" s="4">
+        <v>9</v>
+      </c>
+      <c r="J14" s="4">
+        <v>4</v>
+      </c>
+      <c r="K14" s="4">
+        <v>2</v>
+      </c>
+      <c r="L14" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="4">
+        <v>5</v>
+      </c>
+      <c r="D15" s="4">
+        <v>6</v>
+      </c>
+      <c r="E15" s="4">
+        <v>8</v>
+      </c>
+      <c r="F15" s="4">
+        <v>4</v>
+      </c>
+      <c r="G15" s="4">
+        <v>2</v>
+      </c>
+      <c r="H15" s="4">
+        <v>2</v>
+      </c>
+      <c r="I15" s="4">
+        <v>9</v>
+      </c>
+      <c r="J15" s="4">
+        <v>4</v>
+      </c>
+      <c r="K15" s="4">
+        <v>2</v>
+      </c>
+      <c r="L15" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="4">
+        <v>5</v>
+      </c>
+      <c r="D16" s="4">
+        <v>6</v>
+      </c>
+      <c r="E16" s="4">
+        <v>8</v>
+      </c>
+      <c r="F16" s="4">
+        <v>4</v>
+      </c>
+      <c r="G16" s="4">
+        <v>2</v>
+      </c>
+      <c r="H16" s="4">
+        <v>2</v>
+      </c>
+      <c r="I16" s="4">
+        <v>9</v>
+      </c>
+      <c r="J16" s="4">
+        <v>4</v>
+      </c>
+      <c r="K16" s="4">
+        <v>2</v>
+      </c>
+      <c r="L16" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="4">
+        <v>5</v>
+      </c>
+      <c r="D17" s="4">
+        <v>6</v>
+      </c>
+      <c r="E17" s="4">
+        <v>8</v>
+      </c>
+      <c r="F17" s="4">
+        <v>4</v>
+      </c>
+      <c r="G17" s="4">
+        <v>2</v>
+      </c>
+      <c r="H17" s="4">
+        <v>2</v>
+      </c>
+      <c r="I17" s="4">
+        <v>9</v>
+      </c>
+      <c r="J17" s="4">
+        <v>4</v>
+      </c>
+      <c r="K17" s="4">
+        <v>2</v>
+      </c>
+      <c r="L17" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="4">
+        <v>5</v>
+      </c>
+      <c r="D18" s="4">
+        <v>6</v>
+      </c>
+      <c r="E18" s="4">
+        <v>8</v>
+      </c>
+      <c r="F18" s="4">
+        <v>4</v>
+      </c>
+      <c r="G18" s="4">
+        <v>2</v>
+      </c>
+      <c r="H18" s="4">
+        <v>2</v>
+      </c>
+      <c r="I18" s="4">
+        <v>9</v>
+      </c>
+      <c r="J18" s="4">
+        <v>4</v>
+      </c>
+      <c r="K18" s="4">
+        <v>2</v>
+      </c>
+      <c r="L18" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="4">
+        <v>5</v>
+      </c>
+      <c r="D19" s="4">
+        <v>6</v>
+      </c>
+      <c r="E19" s="4">
+        <v>8</v>
+      </c>
+      <c r="F19" s="4">
+        <v>4</v>
+      </c>
+      <c r="G19" s="4">
+        <v>2</v>
+      </c>
+      <c r="H19" s="4">
+        <v>2</v>
+      </c>
+      <c r="I19" s="4">
+        <v>9</v>
+      </c>
+      <c r="J19" s="4">
+        <v>4</v>
+      </c>
+      <c r="K19" s="4">
+        <v>2</v>
+      </c>
+      <c r="L19" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="4">
+        <v>5</v>
+      </c>
+      <c r="D20" s="4">
+        <v>6</v>
+      </c>
+      <c r="E20" s="4">
+        <v>8</v>
+      </c>
+      <c r="F20" s="4">
+        <v>4</v>
+      </c>
+      <c r="G20" s="4">
+        <v>2</v>
+      </c>
+      <c r="H20" s="4">
+        <v>2</v>
+      </c>
+      <c r="I20" s="4">
+        <v>9</v>
+      </c>
+      <c r="J20" s="4">
+        <v>4</v>
+      </c>
+      <c r="K20" s="4">
+        <v>2</v>
+      </c>
+      <c r="L20" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="4">
+        <v>5</v>
+      </c>
+      <c r="D21" s="4">
+        <v>6</v>
+      </c>
+      <c r="E21" s="4">
+        <v>8</v>
+      </c>
+      <c r="F21" s="4">
+        <v>4</v>
+      </c>
+      <c r="G21" s="4">
+        <v>2</v>
+      </c>
+      <c r="H21" s="4">
+        <v>2</v>
+      </c>
+      <c r="I21" s="4">
+        <v>9</v>
+      </c>
+      <c r="J21" s="4">
+        <v>4</v>
+      </c>
+      <c r="K21" s="4">
+        <v>2</v>
+      </c>
+      <c r="L21" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="4">
+        <v>5</v>
+      </c>
+      <c r="D22" s="4">
+        <v>6</v>
+      </c>
+      <c r="E22" s="4">
+        <v>8</v>
+      </c>
+      <c r="F22" s="4">
+        <v>4</v>
+      </c>
+      <c r="G22" s="4">
+        <v>2</v>
+      </c>
+      <c r="H22" s="4">
+        <v>2</v>
+      </c>
+      <c r="I22" s="4">
+        <v>9</v>
+      </c>
+      <c r="J22" s="4">
+        <v>4</v>
+      </c>
+      <c r="K22" s="4">
+        <v>2</v>
+      </c>
+      <c r="L22" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="4">
+        <v>5</v>
+      </c>
+      <c r="D23" s="4">
+        <v>6</v>
+      </c>
+      <c r="E23" s="4">
+        <v>8</v>
+      </c>
+      <c r="F23" s="4">
+        <v>4</v>
+      </c>
+      <c r="G23" s="4">
+        <v>2</v>
+      </c>
+      <c r="H23" s="4">
+        <v>2</v>
+      </c>
+      <c r="I23" s="4">
+        <v>9</v>
+      </c>
+      <c r="J23" s="4">
+        <v>4</v>
+      </c>
+      <c r="K23" s="4">
+        <v>2</v>
+      </c>
+      <c r="L23" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="4">
+        <v>5</v>
+      </c>
+      <c r="D24" s="4">
+        <v>6</v>
+      </c>
+      <c r="E24" s="4">
+        <v>8</v>
+      </c>
+      <c r="F24" s="4">
+        <v>4</v>
+      </c>
+      <c r="G24" s="4">
+        <v>2</v>
+      </c>
+      <c r="H24" s="4">
+        <v>2</v>
+      </c>
+      <c r="I24" s="4">
+        <v>9</v>
+      </c>
+      <c r="J24" s="4">
+        <v>4</v>
+      </c>
+      <c r="K24" s="4">
+        <v>2</v>
+      </c>
+      <c r="L24" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="4">
+        <v>5</v>
+      </c>
+      <c r="D25" s="4">
+        <v>6</v>
+      </c>
+      <c r="E25" s="4">
+        <v>8</v>
+      </c>
+      <c r="F25" s="4">
+        <v>4</v>
+      </c>
+      <c r="G25" s="4">
+        <v>2</v>
+      </c>
+      <c r="H25" s="4">
+        <v>2</v>
+      </c>
+      <c r="I25" s="4">
+        <v>9</v>
+      </c>
+      <c r="J25" s="4">
+        <v>4</v>
+      </c>
+      <c r="K25" s="4">
+        <v>2</v>
+      </c>
+      <c r="L25" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="4">
+        <v>5</v>
+      </c>
+      <c r="D26" s="4">
+        <v>6</v>
+      </c>
+      <c r="E26" s="4">
+        <v>8</v>
+      </c>
+      <c r="F26" s="4">
+        <v>4</v>
+      </c>
+      <c r="G26" s="4">
+        <v>2</v>
+      </c>
+      <c r="H26" s="4">
+        <v>2</v>
+      </c>
+      <c r="I26" s="4">
+        <v>9</v>
+      </c>
+      <c r="J26" s="4">
+        <v>4</v>
+      </c>
+      <c r="K26" s="4">
+        <v>2</v>
+      </c>
+      <c r="L26" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="4">
+        <v>5</v>
+      </c>
+      <c r="D27" s="4">
+        <v>6</v>
+      </c>
+      <c r="E27" s="4">
+        <v>8</v>
+      </c>
+      <c r="F27" s="4">
+        <v>4</v>
+      </c>
+      <c r="G27" s="4">
+        <v>2</v>
+      </c>
+      <c r="H27" s="4">
+        <v>2</v>
+      </c>
+      <c r="I27" s="4">
+        <v>9</v>
+      </c>
+      <c r="J27" s="4">
+        <v>4</v>
+      </c>
+      <c r="K27" s="4">
+        <v>2</v>
+      </c>
+      <c r="L27" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="4">
+        <v>5</v>
+      </c>
+      <c r="D28" s="4">
+        <v>6</v>
+      </c>
+      <c r="E28" s="4">
+        <v>8</v>
+      </c>
+      <c r="F28" s="4">
+        <v>4</v>
+      </c>
+      <c r="G28" s="4">
+        <v>2</v>
+      </c>
+      <c r="H28" s="4">
+        <v>2</v>
+      </c>
+      <c r="I28" s="4">
+        <v>9</v>
+      </c>
+      <c r="J28" s="4">
+        <v>4</v>
+      </c>
+      <c r="K28" s="4">
+        <v>2</v>
+      </c>
+      <c r="L28" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="4">
+        <v>5</v>
+      </c>
+      <c r="D29" s="4">
+        <v>6</v>
+      </c>
+      <c r="E29" s="4">
+        <v>8</v>
+      </c>
+      <c r="F29" s="4">
+        <v>4</v>
+      </c>
+      <c r="G29" s="4">
+        <v>2</v>
+      </c>
+      <c r="H29" s="4">
+        <v>2</v>
+      </c>
+      <c r="I29" s="4">
+        <v>9</v>
+      </c>
+      <c r="J29" s="4">
+        <v>4</v>
+      </c>
+      <c r="K29" s="4">
+        <v>2</v>
+      </c>
+      <c r="L29" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" s="4">
+        <v>5</v>
+      </c>
+      <c r="D30" s="4">
+        <v>6</v>
+      </c>
+      <c r="E30" s="4">
+        <v>8</v>
+      </c>
+      <c r="F30" s="4">
+        <v>4</v>
+      </c>
+      <c r="G30" s="4">
+        <v>2</v>
+      </c>
+      <c r="H30" s="4">
+        <v>2</v>
+      </c>
+      <c r="I30" s="4">
+        <v>9</v>
+      </c>
+      <c r="J30" s="4">
+        <v>4</v>
+      </c>
+      <c r="K30" s="4">
+        <v>2</v>
+      </c>
+      <c r="L30" s="4">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
